--- a/paddleocr_output.xlsx
+++ b/paddleocr_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,141 +448,341 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>['CHARMING']</t>
+          <t>['Ft', 'EX']</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>['CHARMING']</t>
+          <t>['Ft', 'EX']</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>['CHARMING']</t>
+          <t>['Ft', 'EX']</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>['CHARMING']</t>
+          <t>['EXI', 'FOTH']</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>['CHARMING']</t>
+          <t>['R', 'EXIT', 'POT']</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>['R', 'CHARMING']</t>
+          <t>['R', 'EXIT', 'POT']</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>['C', 'CHARMING']</t>
+          <t>['R', 'EXIT', 'POT']</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.4</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>['CHARMING']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.8</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>['CHARMING']</t>
+          <t>['of']</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.2</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>['CHARN']</t>
+          <t>['Child o']</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>['CHARN']</t>
+          <t>['eet Chil']</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>['CHARN']</t>
+          <t>['eet CI']</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6.4</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>['CHARN']</t>
+          <t>['S', 'ee']</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.8</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>['CHARN']</t>
+          <t>['S']</t>
         </is>
       </c>
       <c r="B15" t="n">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
         <v>7.2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>8.800000000000001</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>9.199999999999999</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>['CELE', '2000']</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>['ECHIDREN', 'LAC']</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>['THECHIL', 'PL.A']</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>['THE', 'PI']</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>13.6</v>
       </c>
     </row>
   </sheetData>
